--- a/data/trade_by_region.xlsx
+++ b/data/trade_by_region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annasihvonen/Documents/projects/economic-development-finland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41008818-08A7-4C40-9477-0B96CD942CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063DB8D-4AAF-8747-81CF-4A5ED862D2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="16">
   <si>
     <t>Cum. statistical value (euro) from the beginning of the year</t>
   </si>
@@ -28,73 +28,10 @@
     <t>202412</t>
   </si>
   <si>
-    <t>1 Uusimaa</t>
-  </si>
-  <si>
     <t>Imports by countries of origin</t>
   </si>
   <si>
     <t>Exports by countries of destination</t>
-  </si>
-  <si>
-    <t>2 Varsinais-Suomi</t>
-  </si>
-  <si>
-    <t>3 Satakunta</t>
-  </si>
-  <si>
-    <t>4 Kanta-Häme</t>
-  </si>
-  <si>
-    <t>5 Pirkanmaa</t>
-  </si>
-  <si>
-    <t>6 Päijät-Häme</t>
-  </si>
-  <si>
-    <t>7 Kymenlaakso</t>
-  </si>
-  <si>
-    <t>8 Etelä-Karjala</t>
-  </si>
-  <si>
-    <t>9 Etelä-Savo</t>
-  </si>
-  <si>
-    <t>10 Pohjois-Savo</t>
-  </si>
-  <si>
-    <t>11 Pohjois-Karjala</t>
-  </si>
-  <si>
-    <t>12 Keski-Suomi</t>
-  </si>
-  <si>
-    <t>13 Etelä-Pohjanmaa</t>
-  </si>
-  <si>
-    <t>14 Pohjanmaa</t>
-  </si>
-  <si>
-    <t>15 Keski-Pohjanmaa</t>
-  </si>
-  <si>
-    <t>16 Pohjois-Pohjanmaa</t>
-  </si>
-  <si>
-    <t>17 Kainuu</t>
-  </si>
-  <si>
-    <t>18 Lappi</t>
-  </si>
-  <si>
-    <t>19 Ahvenanmaa</t>
-  </si>
-  <si>
-    <t>20 Unknown</t>
-  </si>
-  <si>
-    <t>21 Total</t>
   </si>
   <si>
     <t>202312</t>
@@ -511,23 +448,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="F406" sqref="F406"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -537,11 +474,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>42750000000</v>
@@ -551,11 +488,11 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>22418000000</v>
@@ -565,11 +502,11 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>4737000000</v>
@@ -579,11 +516,11 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>6718000000</v>
@@ -593,11 +530,11 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>3332000000</v>
@@ -607,11 +544,11 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7">
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>5926000000</v>
@@ -621,11 +558,11 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8">
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>1175000000</v>
@@ -635,11 +572,11 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>1832000000</v>
@@ -649,11 +586,11 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10">
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>4204000000</v>
@@ -663,11 +600,11 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
+      <c r="B11">
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>6540000000</v>
@@ -677,11 +614,11 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
+      <c r="B12">
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>1121000000</v>
@@ -691,11 +628,11 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
+      <c r="B13">
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>2210000000</v>
@@ -705,11 +642,11 @@
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
+      <c r="B14">
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>1371000000</v>
@@ -719,11 +656,11 @@
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="B15">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>2736000000</v>
@@ -733,11 +670,11 @@
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
+      <c r="B16">
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>378000000</v>
@@ -747,11 +684,11 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
+      <c r="B17">
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>2271000000</v>
@@ -761,11 +698,11 @@
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
+      <c r="B18">
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>310000000</v>
@@ -775,11 +712,11 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
+      <c r="B19">
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>605000000</v>
@@ -789,11 +726,11 @@
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
+      <c r="B20">
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>525000000</v>
@@ -803,11 +740,11 @@
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
+      <c r="B21">
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
         <v>1755000000</v>
@@ -817,11 +754,11 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
+      <c r="B22">
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>404000000</v>
@@ -831,11 +768,11 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
+      <c r="B23">
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <v>975000000</v>
@@ -845,11 +782,11 @@
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
+      <c r="B24">
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <v>1209000000</v>
@@ -859,11 +796,11 @@
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
+      <c r="B25">
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
         <v>2835000000</v>
@@ -873,11 +810,11 @@
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
+      <c r="B26">
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
         <v>816000000</v>
@@ -887,11 +824,11 @@
       <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
+      <c r="B27">
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>782000000</v>
@@ -901,11 +838,11 @@
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
-        <v>17</v>
+      <c r="B28">
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
         <v>2013000000</v>
@@ -915,11 +852,11 @@
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
-        <v>17</v>
+      <c r="B29">
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
         <v>4526000000</v>
@@ -929,11 +866,11 @@
       <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
-        <v>18</v>
+      <c r="B30">
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <v>1729000000</v>
@@ -943,11 +880,11 @@
       <c r="A31" t="s">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
+      <c r="B31">
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>2489000000</v>
@@ -957,11 +894,11 @@
       <c r="A32" t="s">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
-        <v>19</v>
+      <c r="B32">
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <v>2261000000</v>
@@ -971,11 +908,11 @@
       <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>19</v>
+      <c r="B33">
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
         <v>2137000000</v>
@@ -985,11 +922,11 @@
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="B34" t="s">
-        <v>20</v>
+      <c r="B34">
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <v>109000000</v>
@@ -999,11 +936,11 @@
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" t="s">
-        <v>20</v>
+      <c r="B35">
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
         <v>558000000</v>
@@ -1013,11 +950,11 @@
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B36" t="s">
-        <v>21</v>
+      <c r="B36">
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
         <v>2230000000</v>
@@ -1027,11 +964,11 @@
       <c r="A37" t="s">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
-        <v>21</v>
+      <c r="B37">
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
         <v>4065000000</v>
@@ -1041,11 +978,11 @@
       <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B38" t="s">
-        <v>22</v>
+      <c r="B38">
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <v>284000000</v>
@@ -1055,11 +992,11 @@
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
+      <c r="B39">
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
         <v>122000000</v>
@@ -1067,5356 +1004,4796 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>3599000000</v>
+        <v>45234000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>606000000</v>
+        <v>25849000000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>74557000000</v>
+        <v>4900000000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1">
-        <v>72104000000</v>
+        <v>6987000000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>45234000000</v>
+        <v>2629000000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1">
-        <v>25849000000</v>
+        <v>4152000000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>4900000000</v>
+        <v>1094000000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
-        <v>6987000000</v>
+        <v>1791000000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>2629000000</v>
+        <v>4227000000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1">
-        <v>4152000000</v>
+        <v>8825000000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>1094000000</v>
+        <v>1214000000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>1791000000</v>
+        <v>2144000000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>4227000000</v>
+        <v>1069000000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1">
-        <v>8825000000</v>
+        <v>1986000000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>1214000000</v>
+        <v>454000000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1">
-        <v>2144000000</v>
+        <v>1822000000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
-        <v>1069000000</v>
+        <v>325000000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>1986000000</v>
+        <v>497000000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1">
-        <v>454000000</v>
+        <v>613000000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1">
-        <v>1822000000</v>
+        <v>1898000000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>325000000</v>
+        <v>429000000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
-        <v>497000000</v>
+        <v>993000000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
-        <v>613000000</v>
+        <v>1305000000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1">
-        <v>1898000000</v>
+        <v>2769000000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>429000000</v>
+        <v>873000000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>993000000</v>
+        <v>839000000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
-        <v>1305000000</v>
+        <v>2017000000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
-        <v>2769000000</v>
+        <v>3718000000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
-        <v>873000000</v>
+        <v>2340000000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
-        <v>839000000</v>
+        <v>3478000000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
         <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
-        <v>2017000000</v>
+        <v>2163000000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
-        <v>3718000000</v>
+        <v>2167000000</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
-        <v>2340000000</v>
+        <v>121000000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
-        <v>3478000000</v>
+        <v>383000000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1">
-        <v>2163000000</v>
+        <v>2512000000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1">
-        <v>2167000000</v>
+        <v>4627000000</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>121000000</v>
+        <v>375000000</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
-        <v>383000000</v>
+        <v>184000000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1">
-        <v>2512000000</v>
+        <v>52476000000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
-        <v>4627000000</v>
+        <v>23877000000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" s="1">
-        <v>375000000</v>
+        <v>5798000000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1">
-        <v>184000000</v>
+        <v>8734000000</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" s="1">
-        <v>2955000000</v>
+        <v>2963000000</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="1">
-        <v>1251000000</v>
+        <v>6587000000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>76849000000</v>
+        <v>1096000000</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="1">
-        <v>76362000000</v>
+        <v>1913000000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>52476000000</v>
+        <v>4760000000</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" s="1">
-        <v>23877000000</v>
+        <v>6985000000</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" t="s">
         <v>5</v>
       </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
-        <v>5798000000</v>
+        <v>1382000000</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" t="s">
         <v>5</v>
       </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1">
-        <v>8734000000</v>
+        <v>2378000000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
-        <v>2963000000</v>
+        <v>1111000000</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" s="1">
-        <v>6587000000</v>
+        <v>3310000000</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>1096000000</v>
+        <v>517000000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" s="1">
-        <v>1913000000</v>
+        <v>2985000000</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>4760000000</v>
+        <v>316000000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" s="1">
-        <v>6985000000</v>
+        <v>516000000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>1382000000</v>
+        <v>655000000</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1">
-        <v>2378000000</v>
+        <v>2157000000</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>1111000000</v>
+        <v>443000000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1">
-        <v>3310000000</v>
+        <v>1207000000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>517000000</v>
+        <v>1233000000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
-        <v>2985000000</v>
+        <v>2996000000</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>316000000</v>
+        <v>942000000</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" s="1">
-        <v>516000000</v>
+        <v>843000000</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>26</v>
-      </c>
-      <c r="B104" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>655000000</v>
+        <v>2300000000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" s="1">
-        <v>2157000000</v>
+        <v>3917000000</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1">
-        <v>443000000</v>
+        <v>3554000000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>26</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D107" s="1">
-        <v>1207000000</v>
+        <v>2862000000</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>26</v>
-      </c>
-      <c r="B108" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108" s="1">
-        <v>1233000000</v>
+        <v>2785000000</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>26</v>
-      </c>
-      <c r="B109" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109" s="1">
-        <v>2996000000</v>
+        <v>2463000000</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B110" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1">
-        <v>942000000</v>
+        <v>110000000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>26</v>
-      </c>
-      <c r="B111" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D111" s="1">
-        <v>843000000</v>
+        <v>814000000</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112" s="1">
-        <v>2300000000</v>
+        <v>2996000000</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>26</v>
-      </c>
-      <c r="B113" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>3917000000</v>
+        <v>5127000000</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>26</v>
-      </c>
-      <c r="B114" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1">
-        <v>3554000000</v>
+        <v>1098000000</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>26</v>
-      </c>
-      <c r="B115" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D115" s="1">
-        <v>2862000000</v>
+        <v>163000000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>26</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1">
-        <v>2785000000</v>
+        <v>40962000000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>26</v>
-      </c>
-      <c r="B117" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>2463000000</v>
+        <v>19341000000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>26</v>
-      </c>
-      <c r="B118" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118" s="1">
-        <v>110000000</v>
+        <v>5771000000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>26</v>
-      </c>
-      <c r="B119" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1">
-        <v>814000000</v>
+        <v>8039000000</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D120" s="1">
-        <v>2996000000</v>
+        <v>2281000000</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
-        <v>5127000000</v>
+        <v>4859000000</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>26</v>
-      </c>
-      <c r="B122" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1">
-        <v>1098000000</v>
+        <v>1131000000</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1">
-        <v>163000000</v>
+        <v>1829000000</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B124" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" s="1">
-        <v>5936000000</v>
+        <v>4303000000</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>26</v>
-      </c>
-      <c r="B125" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" s="1">
-        <v>2051000000</v>
+        <v>5927000000</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>26</v>
-      </c>
-      <c r="B126" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126" s="1">
-        <v>92469000000</v>
+        <v>1218000000</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D127" s="1">
-        <v>81885000000</v>
+        <v>2054000000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128" s="1">
-        <v>40962000000</v>
+        <v>1007000000</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>27</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" s="1">
-        <v>19341000000</v>
+        <v>3181000000</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>27</v>
-      </c>
-      <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130" s="1">
-        <v>5771000000</v>
+        <v>523000000</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>27</v>
-      </c>
-      <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131" s="1">
-        <v>8039000000</v>
+        <v>2583000000</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" t="s">
         <v>6</v>
       </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
       <c r="C132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132" s="1">
-        <v>2281000000</v>
+        <v>311000000</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" t="s">
         <v>6</v>
       </c>
+      <c r="B133">
+        <v>10</v>
+      </c>
       <c r="C133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133" s="1">
-        <v>4859000000</v>
+        <v>478000000</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>27</v>
-      </c>
-      <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D134" s="1">
-        <v>1131000000</v>
+        <v>641000000</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" s="1">
-        <v>1829000000</v>
+        <v>1925000000</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>27</v>
-      </c>
-      <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1">
-        <v>4303000000</v>
+        <v>445000000</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>27</v>
-      </c>
-      <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137" s="1">
-        <v>5927000000</v>
+        <v>1029000000</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1">
-        <v>1218000000</v>
+        <v>1281000000</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>27</v>
-      </c>
-      <c r="B139" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D139" s="1">
-        <v>2054000000</v>
+        <v>2850000000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>27</v>
-      </c>
-      <c r="B140" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" s="1">
-        <v>1007000000</v>
+        <v>821000000</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>27</v>
-      </c>
-      <c r="B141" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1">
-        <v>3181000000</v>
+        <v>773000000</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>27</v>
-      </c>
-      <c r="B142" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142" s="1">
-        <v>523000000</v>
+        <v>1938000000</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>27</v>
-      </c>
-      <c r="B143" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D143" s="1">
-        <v>2583000000</v>
+        <v>3656000000</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>27</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" s="1">
-        <v>311000000</v>
+        <v>2926000000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>27</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145" s="1">
-        <v>478000000</v>
+        <v>2373000000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146" s="1">
-        <v>641000000</v>
+        <v>2361000000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>27</v>
-      </c>
-      <c r="B147" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D147" s="1">
-        <v>1925000000</v>
+        <v>2195000000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>27</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148" s="1">
-        <v>445000000</v>
+        <v>94000000</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>27</v>
-      </c>
-      <c r="B149" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>18</v>
       </c>
       <c r="C149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D149" s="1">
-        <v>1029000000</v>
+        <v>520000000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D150" s="1">
-        <v>1281000000</v>
+        <v>2409000000</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>27</v>
-      </c>
-      <c r="B151" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D151" s="1">
-        <v>2850000000</v>
+        <v>4244000000</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D152" s="1">
-        <v>821000000</v>
+        <v>385000000</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153" s="1">
-        <v>773000000</v>
+        <v>113000000</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>27</v>
-      </c>
-      <c r="B154" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154" s="1">
-        <v>1938000000</v>
+        <v>33873000000</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D155" s="1">
-        <v>3656000000</v>
+        <v>16571000000</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156" s="1">
-        <v>2926000000</v>
+        <v>4825000000</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>27</v>
-      </c>
-      <c r="B157" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1">
-        <v>2373000000</v>
+        <v>6916000000</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>27</v>
-      </c>
-      <c r="B158" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D158" s="1">
-        <v>2361000000</v>
+        <v>1842000000</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>27</v>
-      </c>
-      <c r="B159" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1">
-        <v>2195000000</v>
+        <v>3957000000</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>27</v>
-      </c>
-      <c r="B160" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D160" s="1">
-        <v>94000000</v>
+        <v>1003000000</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>27</v>
-      </c>
-      <c r="B161" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D161" s="1">
-        <v>520000000</v>
+        <v>1316000000</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>27</v>
-      </c>
-      <c r="B162" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162" s="1">
-        <v>2409000000</v>
+        <v>3527000000</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>27</v>
-      </c>
-      <c r="B163" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D163" s="1">
-        <v>4244000000</v>
+        <v>4871000000</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>27</v>
-      </c>
-      <c r="B164" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164" s="1">
-        <v>385000000</v>
+        <v>1145000000</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>27</v>
-      </c>
-      <c r="B165" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1">
-        <v>113000000</v>
+        <v>1648000000</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>27</v>
-      </c>
-      <c r="B166" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D166" s="1">
-        <v>2127000000</v>
+        <v>856000000</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>27</v>
-      </c>
-      <c r="B167" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D167" s="1">
-        <v>938000000</v>
+        <v>3003000000</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>27</v>
-      </c>
-      <c r="B168" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B168">
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1">
-        <v>72936000000</v>
+        <v>457000000</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>27</v>
-      </c>
-      <c r="B169" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D169" s="1">
-        <v>68908000000</v>
+        <v>1944000000</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>28</v>
-      </c>
-      <c r="B170" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1">
-        <v>33873000000</v>
+        <v>286000000</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>28</v>
-      </c>
-      <c r="B171" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D171" s="1">
-        <v>16571000000</v>
+        <v>398000000</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>28</v>
-      </c>
-      <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B172">
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1">
-        <v>4825000000</v>
+        <v>564000000</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>28</v>
-      </c>
-      <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1">
-        <v>6916000000</v>
+        <v>1457000000</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>28</v>
-      </c>
-      <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D174" s="1">
-        <v>1842000000</v>
+        <v>381000000</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>28</v>
-      </c>
-      <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D175" s="1">
-        <v>3957000000</v>
+        <v>810000000</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>28</v>
-      </c>
-      <c r="B176" t="s">
         <v>7</v>
       </c>
+      <c r="B176">
+        <v>13</v>
+      </c>
       <c r="C176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176" s="1">
-        <v>1003000000</v>
+        <v>1009000000</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>28</v>
-      </c>
-      <c r="B177" t="s">
         <v>7</v>
       </c>
+      <c r="B177">
+        <v>13</v>
+      </c>
       <c r="C177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D177" s="1">
-        <v>1316000000</v>
+        <v>2475000000</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>28</v>
-      </c>
-      <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B178">
+        <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D178" s="1">
-        <v>3527000000</v>
+        <v>696000000</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>28</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B179">
+        <v>14</v>
       </c>
       <c r="C179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D179" s="1">
-        <v>4871000000</v>
+        <v>636000000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>28</v>
-      </c>
-      <c r="B180" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B180">
+        <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180" s="1">
-        <v>1145000000</v>
+        <v>1284000000</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>28</v>
-      </c>
-      <c r="B181" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B181">
+        <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D181" s="1">
-        <v>1648000000</v>
+        <v>3226000000</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>28</v>
-      </c>
-      <c r="B182" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B182">
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182" s="1">
-        <v>856000000</v>
+        <v>2029000000</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>28</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D183" s="1">
-        <v>3003000000</v>
+        <v>1893000000</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>28</v>
-      </c>
-      <c r="B184" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B184">
+        <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D184" s="1">
-        <v>457000000</v>
+        <v>1857000000</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>28</v>
-      </c>
-      <c r="B185" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B185">
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" s="1">
-        <v>1944000000</v>
+        <v>1621000000</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>28</v>
-      </c>
-      <c r="B186" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B186">
+        <v>18</v>
       </c>
       <c r="C186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D186" s="1">
-        <v>286000000</v>
+        <v>121000000</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>28</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>18</v>
       </c>
       <c r="C187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D187" s="1">
-        <v>398000000</v>
+        <v>395000000</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>28</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>19</v>
       </c>
       <c r="C188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188" s="1">
-        <v>564000000</v>
+        <v>1601000000</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>28</v>
-      </c>
-      <c r="B189" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>19</v>
       </c>
       <c r="C189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D189" s="1">
-        <v>1457000000</v>
+        <v>3446000000</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>28</v>
-      </c>
-      <c r="B190" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B190">
+        <v>21</v>
       </c>
       <c r="C190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D190" s="1">
-        <v>381000000</v>
+        <v>309000000</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>28</v>
-      </c>
-      <c r="B191" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B191">
+        <v>21</v>
       </c>
       <c r="C191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D191" s="1">
-        <v>810000000</v>
+        <v>85000000</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>28</v>
-      </c>
-      <c r="B192" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D192" s="1">
-        <v>1009000000</v>
+        <v>38416000000</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>28</v>
-      </c>
-      <c r="B193" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D193" s="1">
-        <v>2475000000</v>
+        <v>19361000000</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>28</v>
-      </c>
-      <c r="B194" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D194" s="1">
-        <v>696000000</v>
+        <v>5486000000</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>28</v>
-      </c>
-      <c r="B195" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195" s="1">
-        <v>636000000</v>
+        <v>7450000000</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>28</v>
-      </c>
-      <c r="B196" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D196" s="1">
-        <v>1284000000</v>
+        <v>1735000000</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>28</v>
-      </c>
-      <c r="B197" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1">
-        <v>3226000000</v>
+        <v>3982000000</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>28</v>
-      </c>
-      <c r="B198" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D198" s="1">
-        <v>2029000000</v>
+        <v>972000000</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>28</v>
-      </c>
-      <c r="B199" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1">
-        <v>1893000000</v>
+        <v>1394000000</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>28</v>
-      </c>
-      <c r="B200" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D200" s="1">
-        <v>1857000000</v>
+        <v>3724000000</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>28</v>
-      </c>
-      <c r="B201" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1">
-        <v>1621000000</v>
+        <v>5261000000</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>28</v>
-      </c>
-      <c r="B202" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D202" s="1">
-        <v>121000000</v>
+        <v>1217000000</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>28</v>
-      </c>
-      <c r="B203" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D203" s="1">
-        <v>395000000</v>
+        <v>1897000000</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>28</v>
-      </c>
-      <c r="B204" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B204">
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204" s="1">
-        <v>1601000000</v>
+        <v>1050000000</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>28</v>
-      </c>
-      <c r="B205" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D205" s="1">
-        <v>3446000000</v>
+        <v>4676000000</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>28</v>
-      </c>
-      <c r="B206" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D206" s="1">
-        <v>309000000</v>
+        <v>508000000</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>28</v>
-      </c>
-      <c r="B207" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D207" s="1">
-        <v>85000000</v>
+        <v>2106000000</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>28</v>
-      </c>
-      <c r="B208" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" s="1">
-        <v>2103000000</v>
+        <v>290000000</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>28</v>
-      </c>
-      <c r="B209" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B209">
+        <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D209" s="1">
-        <v>770000000</v>
+        <v>374000000</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>28</v>
-      </c>
-      <c r="B210" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D210" s="1">
-        <v>59768000000</v>
+        <v>565000000</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>28</v>
-      </c>
-      <c r="B211" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B211">
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D211" s="1">
-        <v>57440000000</v>
+        <v>1578000000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>29</v>
-      </c>
-      <c r="B212" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D212" s="1">
-        <v>38416000000</v>
+        <v>389000000</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>29</v>
-      </c>
-      <c r="B213" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D213" s="1">
-        <v>19361000000</v>
+        <v>921000000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>29</v>
-      </c>
-      <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B214">
+        <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214" s="1">
-        <v>5486000000</v>
+        <v>1019000000</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>29</v>
-      </c>
-      <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B215">
+        <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D215" s="1">
-        <v>7450000000</v>
+        <v>2687000000</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>29</v>
-      </c>
-      <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B216">
+        <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216" s="1">
-        <v>1735000000</v>
+        <v>629000000</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>29</v>
-      </c>
-      <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
       </c>
       <c r="C217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217" s="1">
-        <v>3982000000</v>
+        <v>649000000</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>29</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B218">
+        <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218" s="1">
-        <v>972000000</v>
+        <v>1335000000</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>29</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B219">
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D219" s="1">
-        <v>1394000000</v>
+        <v>3550000000</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>29</v>
-      </c>
-      <c r="B220" t="s">
         <v>8</v>
       </c>
+      <c r="B220">
+        <v>16</v>
+      </c>
       <c r="C220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220" s="1">
-        <v>3724000000</v>
+        <v>1802000000</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>29</v>
-      </c>
-      <c r="B221" t="s">
         <v>8</v>
       </c>
+      <c r="B221">
+        <v>16</v>
+      </c>
       <c r="C221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D221" s="1">
-        <v>5261000000</v>
+        <v>1715000000</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>29</v>
-      </c>
-      <c r="B222" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D222" s="1">
-        <v>1217000000</v>
+        <v>2190000000</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>29</v>
-      </c>
-      <c r="B223" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B223">
+        <v>17</v>
       </c>
       <c r="C223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223" s="1">
-        <v>1897000000</v>
+        <v>2282000000</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>29</v>
-      </c>
-      <c r="B224" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B224">
+        <v>18</v>
       </c>
       <c r="C224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224" s="1">
-        <v>1050000000</v>
+        <v>98000000</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>29</v>
-      </c>
-      <c r="B225" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>18</v>
       </c>
       <c r="C225" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225" s="1">
-        <v>4676000000</v>
+        <v>440000000</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>29</v>
-      </c>
-      <c r="B226" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B226">
+        <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D226" s="1">
-        <v>508000000</v>
+        <v>1971000000</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>29</v>
-      </c>
-      <c r="B227" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B227">
+        <v>19</v>
       </c>
       <c r="C227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D227" s="1">
-        <v>2106000000</v>
+        <v>3818000000</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>29</v>
-      </c>
-      <c r="B228" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B228">
+        <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228" s="1">
-        <v>290000000</v>
+        <v>398000000</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>29</v>
-      </c>
-      <c r="B229" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B229">
+        <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229" s="1">
-        <v>374000000</v>
+        <v>104000000</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>29</v>
-      </c>
-      <c r="B230" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D230" s="1">
-        <v>565000000</v>
+        <v>38838000000</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>29</v>
-      </c>
-      <c r="B231" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D231" s="1">
-        <v>1578000000</v>
+        <v>18717000000</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>29</v>
-      </c>
-      <c r="B232" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D232" s="1">
-        <v>389000000</v>
+        <v>5232000000</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>29</v>
-      </c>
-      <c r="B233" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D233" s="1">
-        <v>921000000</v>
+        <v>6370000000</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>29</v>
-      </c>
-      <c r="B234" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D234" s="1">
-        <v>1019000000</v>
+        <v>1694000000</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>29</v>
-      </c>
-      <c r="B235" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D235" s="1">
-        <v>2687000000</v>
+        <v>4246000000</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>29</v>
-      </c>
-      <c r="B236" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B236">
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236" s="1">
-        <v>629000000</v>
+        <v>937000000</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>29</v>
-      </c>
-      <c r="B237" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D237" s="1">
-        <v>649000000</v>
+        <v>1396000000</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>29</v>
-      </c>
-      <c r="B238" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B238">
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1">
-        <v>1335000000</v>
+        <v>3700000000</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>29</v>
-      </c>
-      <c r="B239" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B239">
+        <v>6</v>
       </c>
       <c r="C239" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1">
-        <v>3550000000</v>
+        <v>4715000000</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>29</v>
-      </c>
-      <c r="B240" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="B240">
+        <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1">
-        <v>1802000000</v>
+        <v>1231000000</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>29</v>
-      </c>
-      <c r="B241" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="B241">
+        <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241" s="1">
-        <v>1715000000</v>
+        <v>1946000000</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>29</v>
-      </c>
-      <c r="B242" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D242" s="1">
-        <v>2190000000</v>
+        <v>1772000000</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>29</v>
-      </c>
-      <c r="B243" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B243">
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D243" s="1">
-        <v>2282000000</v>
+        <v>4020000000</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>29</v>
-      </c>
-      <c r="B244" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B244">
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" s="1">
-        <v>98000000</v>
+        <v>530000000</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>29</v>
-      </c>
-      <c r="B245" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D245" s="1">
-        <v>440000000</v>
+        <v>2490000000</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>29</v>
-      </c>
-      <c r="B246" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B246">
+        <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D246" s="1">
-        <v>1971000000</v>
+        <v>285000000</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>29</v>
-      </c>
-      <c r="B247" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B247">
+        <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D247" s="1">
-        <v>3818000000</v>
+        <v>392000000</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>29</v>
-      </c>
-      <c r="B248" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B248">
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D248" s="1">
-        <v>398000000</v>
+        <v>526000000</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>29</v>
-      </c>
-      <c r="B249" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B249">
+        <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D249" s="1">
-        <v>104000000</v>
+        <v>1507000000</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>29</v>
-      </c>
-      <c r="B250" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="B250">
+        <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D250" s="1">
-        <v>2056000000</v>
+        <v>368000000</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>29</v>
-      </c>
-      <c r="B251" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="B251">
+        <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D251" s="1">
-        <v>806000000</v>
+        <v>972000000</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>29</v>
-      </c>
-      <c r="B252" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B252">
+        <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" s="1">
-        <v>65851000000</v>
+        <v>923000000</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>29</v>
-      </c>
-      <c r="B253" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B253">
+        <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D253" s="1">
-        <v>65054000000</v>
+        <v>2923000000</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>30</v>
-      </c>
-      <c r="B254" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B254">
+        <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D254" s="1">
-        <v>38838000000</v>
+        <v>575000000</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>30</v>
-      </c>
-      <c r="B255" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B255">
+        <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D255" s="1">
-        <v>18717000000</v>
+        <v>632000000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>30</v>
-      </c>
-      <c r="B256" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B256">
+        <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256" s="1">
-        <v>5232000000</v>
+        <v>1269000000</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>30</v>
-      </c>
-      <c r="B257" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B257">
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D257" s="1">
-        <v>6370000000</v>
+        <v>3508000000</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>30</v>
-      </c>
-      <c r="B258" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B258">
+        <v>16</v>
       </c>
       <c r="C258" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D258" s="1">
-        <v>1694000000</v>
+        <v>2387000000</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>30</v>
-      </c>
-      <c r="B259" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B259">
+        <v>16</v>
       </c>
       <c r="C259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D259" s="1">
-        <v>4246000000</v>
+        <v>1865000000</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>30</v>
-      </c>
-      <c r="B260" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B260">
+        <v>17</v>
       </c>
       <c r="C260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D260" s="1">
-        <v>937000000</v>
+        <v>2073000000</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>30</v>
-      </c>
-      <c r="B261" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B261">
+        <v>17</v>
       </c>
       <c r="C261" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D261" s="1">
-        <v>1396000000</v>
+        <v>2319000000</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>30</v>
-      </c>
-      <c r="B262" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B262">
+        <v>18</v>
       </c>
       <c r="C262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D262" s="1">
-        <v>3700000000</v>
+        <v>102000000</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>30</v>
-      </c>
-      <c r="B263" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B263">
+        <v>18</v>
       </c>
       <c r="C263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D263" s="1">
-        <v>4715000000</v>
+        <v>439000000</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>30</v>
-      </c>
-      <c r="B264" t="s">
         <v>9</v>
       </c>
+      <c r="B264">
+        <v>19</v>
+      </c>
       <c r="C264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" s="1">
-        <v>1231000000</v>
+        <v>1992000000</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>30</v>
-      </c>
-      <c r="B265" t="s">
         <v>9</v>
       </c>
+      <c r="B265">
+        <v>19</v>
+      </c>
       <c r="C265" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D265" s="1">
-        <v>1946000000</v>
+        <v>4329000000</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>30</v>
-      </c>
-      <c r="B266" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B266">
+        <v>21</v>
       </c>
       <c r="C266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266" s="1">
-        <v>1772000000</v>
+        <v>243000000</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>30</v>
-      </c>
-      <c r="B267" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B267">
+        <v>21</v>
       </c>
       <c r="C267" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D267" s="1">
-        <v>4020000000</v>
+        <v>94000000</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>30</v>
-      </c>
-      <c r="B268" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" s="1">
-        <v>530000000</v>
+        <v>36814000000</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>30</v>
-      </c>
-      <c r="B269" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D269" s="1">
-        <v>2490000000</v>
+        <v>18255000000</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>30</v>
-      </c>
-      <c r="B270" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270" s="1">
-        <v>285000000</v>
+        <v>4510000000</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>30</v>
-      </c>
-      <c r="B271" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D271" s="1">
-        <v>392000000</v>
+        <v>5763000000</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>30</v>
-      </c>
-      <c r="B272" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B272">
+        <v>4</v>
       </c>
       <c r="C272" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D272" s="1">
-        <v>526000000</v>
+        <v>1747000000</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>30</v>
-      </c>
-      <c r="B273" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B273">
+        <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D273" s="1">
-        <v>1507000000</v>
+        <v>4149000000</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>30</v>
-      </c>
-      <c r="B274" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B274">
+        <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D274" s="1">
-        <v>368000000</v>
+        <v>807000000</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>30</v>
-      </c>
-      <c r="B275" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B275">
+        <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D275" s="1">
-        <v>972000000</v>
+        <v>1459000000</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>30</v>
-      </c>
-      <c r="B276" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B276">
+        <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D276" s="1">
-        <v>923000000</v>
+        <v>3497000000</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>30</v>
-      </c>
-      <c r="B277" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B277">
+        <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D277" s="1">
-        <v>2923000000</v>
+        <v>4775000000</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>30</v>
-      </c>
-      <c r="B278" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B278">
+        <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D278" s="1">
-        <v>575000000</v>
+        <v>1137000000</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>30</v>
-      </c>
-      <c r="B279" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B279">
+        <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D279" s="1">
-        <v>632000000</v>
+        <v>1818000000</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>30</v>
-      </c>
-      <c r="B280" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B280">
+        <v>8</v>
       </c>
       <c r="C280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D280" s="1">
-        <v>1269000000</v>
+        <v>2002000000</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>30</v>
-      </c>
-      <c r="B281" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B281">
+        <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D281" s="1">
-        <v>3508000000</v>
+        <v>3387000000</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>30</v>
-      </c>
-      <c r="B282" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B282">
+        <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D282" s="1">
-        <v>2387000000</v>
+        <v>393000000</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>30</v>
-      </c>
-      <c r="B283" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B283">
+        <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D283" s="1">
-        <v>1865000000</v>
+        <v>2177000000</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>30</v>
-      </c>
-      <c r="B284" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B284">
+        <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D284" s="1">
-        <v>2073000000</v>
+        <v>277000000</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>30</v>
-      </c>
-      <c r="B285" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B285">
+        <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D285" s="1">
-        <v>2319000000</v>
+        <v>410000000</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>30</v>
-      </c>
-      <c r="B286" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
       </c>
       <c r="C286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D286" s="1">
-        <v>102000000</v>
+        <v>531000000</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>30</v>
-      </c>
-      <c r="B287" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B287">
+        <v>11</v>
       </c>
       <c r="C287" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D287" s="1">
-        <v>439000000</v>
+        <v>1591000000</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>30</v>
-      </c>
-      <c r="B288" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B288">
+        <v>12</v>
       </c>
       <c r="C288" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288" s="1">
-        <v>1992000000</v>
+        <v>326000000</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>30</v>
-      </c>
-      <c r="B289" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B289">
+        <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D289" s="1">
-        <v>4329000000</v>
+        <v>899000000</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>30</v>
-      </c>
-      <c r="B290" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B290">
+        <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" s="1">
-        <v>243000000</v>
+        <v>870000000</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>30</v>
-      </c>
-      <c r="B291" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B291">
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D291" s="1">
-        <v>94000000</v>
+        <v>2394000000</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>30</v>
-      </c>
-      <c r="B292" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>14</v>
       </c>
       <c r="C292" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D292" s="1">
-        <v>1909000000</v>
+        <v>551000000</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>30</v>
-      </c>
-      <c r="B293" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B293">
+        <v>14</v>
       </c>
       <c r="C293" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D293" s="1">
-        <v>801000000</v>
+        <v>612000000</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>30</v>
-      </c>
-      <c r="B294" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B294">
+        <v>15</v>
       </c>
       <c r="C294" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D294" s="1">
-        <v>66585000000</v>
+        <v>1385000000</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>30</v>
-      </c>
-      <c r="B295" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B295">
+        <v>15</v>
       </c>
       <c r="C295" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D295" s="1">
-        <v>63682000000</v>
+        <v>3507000000</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>31</v>
-      </c>
-      <c r="B296" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B296">
+        <v>16</v>
       </c>
       <c r="C296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D296" s="1">
-        <v>36814000000</v>
+        <v>2100000000</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>31</v>
-      </c>
-      <c r="B297" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B297">
+        <v>16</v>
       </c>
       <c r="C297" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D297" s="1">
-        <v>18255000000</v>
+        <v>1611000000</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>31</v>
-      </c>
-      <c r="B298" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B298">
+        <v>17</v>
       </c>
       <c r="C298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D298" s="1">
-        <v>4510000000</v>
+        <v>1790000000</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>31</v>
-      </c>
-      <c r="B299" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B299">
+        <v>17</v>
       </c>
       <c r="C299" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D299" s="1">
-        <v>5763000000</v>
+        <v>1877000000</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>31</v>
-      </c>
-      <c r="B300" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B300">
+        <v>18</v>
       </c>
       <c r="C300" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D300" s="1">
-        <v>1747000000</v>
+        <v>91000000</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>31</v>
-      </c>
-      <c r="B301" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B301">
+        <v>18</v>
       </c>
       <c r="C301" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D301" s="1">
-        <v>4149000000</v>
+        <v>354000000</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>31</v>
-      </c>
-      <c r="B302" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B302">
+        <v>19</v>
       </c>
       <c r="C302" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D302" s="1">
-        <v>807000000</v>
+        <v>1754000000</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>31</v>
-      </c>
-      <c r="B303" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B303">
+        <v>19</v>
       </c>
       <c r="C303" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D303" s="1">
-        <v>1459000000</v>
+        <v>3915000000</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>31</v>
-      </c>
-      <c r="B304" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B304">
+        <v>21</v>
       </c>
       <c r="C304" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D304" s="1">
-        <v>3497000000</v>
+        <v>347000000</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>31</v>
-      </c>
-      <c r="B305" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B305">
+        <v>21</v>
       </c>
       <c r="C305" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D305" s="1">
-        <v>4775000000</v>
+        <v>96000000</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>31</v>
-      </c>
-      <c r="B306" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D306" s="1">
-        <v>1137000000</v>
+        <v>34441000000</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>31</v>
-      </c>
-      <c r="B307" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D307" s="1">
-        <v>1818000000</v>
+        <v>15850000000</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>31</v>
-      </c>
-      <c r="B308" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
       </c>
       <c r="C308" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D308" s="1">
-        <v>2002000000</v>
+        <v>3033000000</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>31</v>
-      </c>
-      <c r="B309" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
       </c>
       <c r="C309" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D309" s="1">
-        <v>3387000000</v>
+        <v>4000000000</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>31</v>
-      </c>
-      <c r="B310" t="s">
         <v>11</v>
       </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
       <c r="C310" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D310" s="1">
-        <v>393000000</v>
+        <v>1247000000</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>31</v>
-      </c>
-      <c r="B311" t="s">
         <v>11</v>
       </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
       <c r="C311" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D311" s="1">
-        <v>2177000000</v>
+        <v>3098000000</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>31</v>
-      </c>
-      <c r="B312" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B312">
+        <v>5</v>
       </c>
       <c r="C312" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D312" s="1">
-        <v>277000000</v>
+        <v>727000000</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>31</v>
-      </c>
-      <c r="B313" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B313">
+        <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D313" s="1">
-        <v>410000000</v>
+        <v>1367000000</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>31</v>
-      </c>
-      <c r="B314" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B314">
+        <v>6</v>
       </c>
       <c r="C314" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D314" s="1">
-        <v>531000000</v>
+        <v>3318000000</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>31</v>
-      </c>
-      <c r="B315" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B315">
+        <v>6</v>
       </c>
       <c r="C315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D315" s="1">
-        <v>1591000000</v>
+        <v>4138000000</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>31</v>
-      </c>
-      <c r="B316" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B316">
+        <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D316" s="1">
-        <v>326000000</v>
+        <v>1074000000</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>31</v>
-      </c>
-      <c r="B317" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B317">
+        <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D317" s="1">
-        <v>899000000</v>
+        <v>1670000000</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>31</v>
-      </c>
-      <c r="B318" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B318">
+        <v>8</v>
       </c>
       <c r="C318" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D318" s="1">
-        <v>870000000</v>
+        <v>867000000</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>31</v>
-      </c>
-      <c r="B319" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B319">
+        <v>8</v>
       </c>
       <c r="C319" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D319" s="1">
-        <v>2394000000</v>
+        <v>4661000000</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>31</v>
-      </c>
-      <c r="B320" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B320">
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D320" s="1">
-        <v>551000000</v>
+        <v>338000000</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>31</v>
-      </c>
-      <c r="B321" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B321">
+        <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D321" s="1">
-        <v>612000000</v>
+        <v>1397000000</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>31</v>
-      </c>
-      <c r="B322" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B322">
+        <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D322" s="1">
-        <v>1385000000</v>
+        <v>260000000</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>31</v>
-      </c>
-      <c r="B323" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B323">
+        <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D323" s="1">
-        <v>3507000000</v>
+        <v>422000000</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>31</v>
-      </c>
-      <c r="B324" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B324">
+        <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D324" s="1">
-        <v>2100000000</v>
+        <v>515000000</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>31</v>
-      </c>
-      <c r="B325" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B325">
+        <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D325" s="1">
-        <v>1611000000</v>
+        <v>1177000000</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>31</v>
-      </c>
-      <c r="B326" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B326">
+        <v>12</v>
       </c>
       <c r="C326" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D326" s="1">
-        <v>1790000000</v>
+        <v>299000000</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>31</v>
-      </c>
-      <c r="B327" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B327">
+        <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D327" s="1">
-        <v>1877000000</v>
+        <v>755000000</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>31</v>
-      </c>
-      <c r="B328" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B328">
+        <v>13</v>
       </c>
       <c r="C328" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D328" s="1">
-        <v>91000000</v>
+        <v>775000000</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>31</v>
-      </c>
-      <c r="B329" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B329">
+        <v>13</v>
       </c>
       <c r="C329" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D329" s="1">
-        <v>354000000</v>
+        <v>2159000000</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>31</v>
-      </c>
-      <c r="B330" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B330">
+        <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D330" s="1">
-        <v>1754000000</v>
+        <v>503000000</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>31</v>
-      </c>
-      <c r="B331" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B331">
+        <v>14</v>
       </c>
       <c r="C331" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D331" s="1">
-        <v>3915000000</v>
+        <v>561000000</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>31</v>
-      </c>
-      <c r="B332" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="B332">
+        <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332" s="1">
-        <v>347000000</v>
+        <v>1382000000</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>31</v>
-      </c>
-      <c r="B333" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="B333">
+        <v>15</v>
       </c>
       <c r="C333" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D333" s="1">
-        <v>96000000</v>
+        <v>3122000000</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>31</v>
-      </c>
-      <c r="B334" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B334">
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D334" s="1">
-        <v>1539000000</v>
+        <v>1415000000</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>31</v>
-      </c>
-      <c r="B335" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B335">
+        <v>16</v>
       </c>
       <c r="C335" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D335" s="1">
-        <v>661000000</v>
+        <v>1806000000</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>31</v>
-      </c>
-      <c r="B336" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B336">
+        <v>17</v>
       </c>
       <c r="C336" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D336" s="1">
-        <v>62469000000</v>
+        <v>1421000000</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>31</v>
-      </c>
-      <c r="B337" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B337">
+        <v>17</v>
       </c>
       <c r="C337" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D337" s="1">
-        <v>59711000000</v>
+        <v>1337000000</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>32</v>
-      </c>
-      <c r="B338" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B338">
+        <v>18</v>
       </c>
       <c r="C338" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D338" s="1">
-        <v>34441000000</v>
+        <v>74000000</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>32</v>
-      </c>
-      <c r="B339" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B339">
+        <v>18</v>
       </c>
       <c r="C339" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D339" s="1">
-        <v>15850000000</v>
+        <v>211000000</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>32</v>
-      </c>
-      <c r="B340" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B340">
+        <v>19</v>
       </c>
       <c r="C340" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D340" s="1">
-        <v>3033000000</v>
+        <v>1595000000</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>32</v>
-      </c>
-      <c r="B341" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B341">
+        <v>19</v>
       </c>
       <c r="C341" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D341" s="1">
-        <v>4000000000</v>
+        <v>3553000000</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>32</v>
-      </c>
-      <c r="B342" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B342">
+        <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D342" s="1">
-        <v>1247000000</v>
+        <v>480000000</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>32</v>
-      </c>
-      <c r="B343" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B343">
+        <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D343" s="1">
-        <v>3098000000</v>
+        <v>83000000</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>32</v>
-      </c>
-      <c r="B344" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
       </c>
       <c r="C344" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D344" s="1">
-        <v>727000000</v>
+        <v>33474000000</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>32</v>
-      </c>
-      <c r="B345" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D345" s="1">
-        <v>1367000000</v>
+        <v>16912000000</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>32</v>
-      </c>
-      <c r="B346" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
       </c>
       <c r="C346" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D346" s="1">
-        <v>3318000000</v>
+        <v>3431000000</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>32</v>
-      </c>
-      <c r="B347" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
       </c>
       <c r="C347" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D347" s="1">
-        <v>4138000000</v>
+        <v>4647000000</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>32</v>
-      </c>
-      <c r="B348" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
       </c>
       <c r="C348" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D348" s="1">
-        <v>1074000000</v>
+        <v>1207000000</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>32</v>
-      </c>
-      <c r="B349" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
       </c>
       <c r="C349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D349" s="1">
-        <v>1670000000</v>
+        <v>3348000000</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>32</v>
-      </c>
-      <c r="B350" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B350">
+        <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D350" s="1">
-        <v>867000000</v>
+        <v>722000000</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>32</v>
-      </c>
-      <c r="B351" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B351">
+        <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D351" s="1">
-        <v>4661000000</v>
+        <v>1289000000</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>32</v>
-      </c>
-      <c r="B352" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B352">
+        <v>6</v>
       </c>
       <c r="C352" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D352" s="1">
-        <v>338000000</v>
+        <v>3159000000</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>32</v>
-      </c>
-      <c r="B353" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B353">
+        <v>6</v>
       </c>
       <c r="C353" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D353" s="1">
-        <v>1397000000</v>
+        <v>4161000000</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>32</v>
-      </c>
-      <c r="B354" t="s">
         <v>12</v>
       </c>
+      <c r="B354">
+        <v>7</v>
+      </c>
       <c r="C354" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D354" s="1">
-        <v>260000000</v>
+        <v>1105000000</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>32</v>
-      </c>
-      <c r="B355" t="s">
         <v>12</v>
       </c>
+      <c r="B355">
+        <v>7</v>
+      </c>
       <c r="C355" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D355" s="1">
-        <v>422000000</v>
+        <v>1697000000</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>32</v>
-      </c>
-      <c r="B356" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B356">
+        <v>8</v>
       </c>
       <c r="C356" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D356" s="1">
-        <v>515000000</v>
+        <v>898000000</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>32</v>
-      </c>
-      <c r="B357" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B357">
+        <v>8</v>
       </c>
       <c r="C357" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357" s="1">
-        <v>1177000000</v>
+        <v>4766000000</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>32</v>
-      </c>
-      <c r="B358" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B358">
+        <v>9</v>
       </c>
       <c r="C358" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D358" s="1">
-        <v>299000000</v>
+        <v>377000000</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>32</v>
-      </c>
-      <c r="B359" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B359">
+        <v>9</v>
       </c>
       <c r="C359" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D359" s="1">
-        <v>755000000</v>
+        <v>1277000000</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>32</v>
-      </c>
-      <c r="B360" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B360">
+        <v>10</v>
       </c>
       <c r="C360" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D360" s="1">
-        <v>775000000</v>
+        <v>246000000</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>32</v>
-      </c>
-      <c r="B361" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B361">
+        <v>10</v>
       </c>
       <c r="C361" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D361" s="1">
-        <v>2159000000</v>
+        <v>387000000</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>32</v>
-      </c>
-      <c r="B362" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B362">
+        <v>11</v>
       </c>
       <c r="C362" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D362" s="1">
-        <v>503000000</v>
+        <v>511000000</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>32</v>
-      </c>
-      <c r="B363" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B363">
+        <v>11</v>
       </c>
       <c r="C363" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D363" s="1">
-        <v>561000000</v>
+        <v>1135000000</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>32</v>
-      </c>
-      <c r="B364" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B364">
+        <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D364" s="1">
-        <v>1382000000</v>
+        <v>274000000</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>32</v>
-      </c>
-      <c r="B365" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B365">
+        <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D365" s="1">
-        <v>3122000000</v>
+        <v>766000000</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>32</v>
-      </c>
-      <c r="B366" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B366">
+        <v>13</v>
       </c>
       <c r="C366" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D366" s="1">
-        <v>1415000000</v>
+        <v>754000000</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>32</v>
-      </c>
-      <c r="B367" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B367">
+        <v>13</v>
       </c>
       <c r="C367" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D367" s="1">
-        <v>1806000000</v>
+        <v>2135000000</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>32</v>
-      </c>
-      <c r="B368" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B368">
+        <v>14</v>
       </c>
       <c r="C368" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D368" s="1">
-        <v>1421000000</v>
+        <v>535000000</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>32</v>
-      </c>
-      <c r="B369" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B369">
+        <v>14</v>
       </c>
       <c r="C369" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D369" s="1">
-        <v>1337000000</v>
+        <v>553000000</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>32</v>
-      </c>
-      <c r="B370" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B370">
+        <v>15</v>
       </c>
       <c r="C370" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D370" s="1">
-        <v>74000000</v>
+        <v>1310000000</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>32</v>
-      </c>
-      <c r="B371" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B371">
+        <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D371" s="1">
-        <v>211000000</v>
+        <v>3129000000</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>32</v>
-      </c>
-      <c r="B372" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B372">
+        <v>16</v>
       </c>
       <c r="C372" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D372" s="1">
-        <v>1595000000</v>
+        <v>1517000000</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>32</v>
-      </c>
-      <c r="B373" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B373">
+        <v>16</v>
       </c>
       <c r="C373" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D373" s="1">
-        <v>3553000000</v>
+        <v>1729000000</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>32</v>
-      </c>
-      <c r="B374" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B374">
+        <v>17</v>
       </c>
       <c r="C374" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D374" s="1">
-        <v>480000000</v>
+        <v>1443000000</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>32</v>
-      </c>
-      <c r="B375" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B375">
+        <v>17</v>
       </c>
       <c r="C375" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D375" s="1">
-        <v>83000000</v>
+        <v>1396000000</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>32</v>
-      </c>
-      <c r="B376" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B376">
+        <v>18</v>
       </c>
       <c r="C376" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D376" s="1">
-        <v>1238000000</v>
+        <v>51000000</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>32</v>
-      </c>
-      <c r="B377" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B377">
+        <v>18</v>
       </c>
       <c r="C377" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D377" s="1">
-        <v>513000000</v>
+        <v>145000000</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>32</v>
-      </c>
-      <c r="B378" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="B378">
+        <v>19</v>
       </c>
       <c r="C378" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D378" s="1">
-        <v>55003000000</v>
+        <v>1695000000</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>32</v>
-      </c>
-      <c r="B379" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="B379">
+        <v>19</v>
       </c>
       <c r="C379" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D379" s="1">
-        <v>51878000000</v>
+        <v>3875000000</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>33</v>
-      </c>
-      <c r="B380" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B380">
+        <v>21</v>
       </c>
       <c r="C380" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D380" s="1">
-        <v>33474000000</v>
+        <v>559000000</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>33</v>
-      </c>
-      <c r="B381" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B381">
+        <v>21</v>
       </c>
       <c r="C381" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D381" s="1">
-        <v>16912000000</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>33</v>
-      </c>
-      <c r="B382" t="s">
-        <v>5</v>
-      </c>
-      <c r="C382" t="s">
-        <v>3</v>
-      </c>
-      <c r="D382" s="1">
-        <v>3431000000</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>33</v>
-      </c>
-      <c r="B383" t="s">
-        <v>5</v>
-      </c>
-      <c r="C383" t="s">
-        <v>4</v>
-      </c>
-      <c r="D383" s="1">
-        <v>4647000000</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>33</v>
-      </c>
-      <c r="B384" t="s">
-        <v>6</v>
-      </c>
-      <c r="C384" t="s">
-        <v>3</v>
-      </c>
-      <c r="D384" s="1">
-        <v>1207000000</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>33</v>
-      </c>
-      <c r="B385" t="s">
-        <v>6</v>
-      </c>
-      <c r="C385" t="s">
-        <v>4</v>
-      </c>
-      <c r="D385" s="1">
-        <v>3348000000</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>33</v>
-      </c>
-      <c r="B386" t="s">
-        <v>7</v>
-      </c>
-      <c r="C386" t="s">
-        <v>3</v>
-      </c>
-      <c r="D386" s="1">
-        <v>722000000</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>33</v>
-      </c>
-      <c r="B387" t="s">
-        <v>7</v>
-      </c>
-      <c r="C387" t="s">
-        <v>4</v>
-      </c>
-      <c r="D387" s="1">
-        <v>1289000000</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>33</v>
-      </c>
-      <c r="B388" t="s">
-        <v>8</v>
-      </c>
-      <c r="C388" t="s">
-        <v>3</v>
-      </c>
-      <c r="D388" s="1">
-        <v>3159000000</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>33</v>
-      </c>
-      <c r="B389" t="s">
-        <v>8</v>
-      </c>
-      <c r="C389" t="s">
-        <v>4</v>
-      </c>
-      <c r="D389" s="1">
-        <v>4161000000</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>33</v>
-      </c>
-      <c r="B390" t="s">
-        <v>9</v>
-      </c>
-      <c r="C390" t="s">
-        <v>3</v>
-      </c>
-      <c r="D390" s="1">
-        <v>1105000000</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>33</v>
-      </c>
-      <c r="B391" t="s">
-        <v>9</v>
-      </c>
-      <c r="C391" t="s">
-        <v>4</v>
-      </c>
-      <c r="D391" s="1">
-        <v>1697000000</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>33</v>
-      </c>
-      <c r="B392" t="s">
-        <v>10</v>
-      </c>
-      <c r="C392" t="s">
-        <v>3</v>
-      </c>
-      <c r="D392" s="1">
-        <v>898000000</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>33</v>
-      </c>
-      <c r="B393" t="s">
-        <v>10</v>
-      </c>
-      <c r="C393" t="s">
-        <v>4</v>
-      </c>
-      <c r="D393" s="1">
-        <v>4766000000</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>33</v>
-      </c>
-      <c r="B394" t="s">
-        <v>11</v>
-      </c>
-      <c r="C394" t="s">
-        <v>3</v>
-      </c>
-      <c r="D394" s="1">
-        <v>377000000</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>33</v>
-      </c>
-      <c r="B395" t="s">
-        <v>11</v>
-      </c>
-      <c r="C395" t="s">
-        <v>4</v>
-      </c>
-      <c r="D395" s="1">
-        <v>1277000000</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>33</v>
-      </c>
-      <c r="B396" t="s">
-        <v>12</v>
-      </c>
-      <c r="C396" t="s">
-        <v>3</v>
-      </c>
-      <c r="D396" s="1">
-        <v>246000000</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>33</v>
-      </c>
-      <c r="B397" t="s">
-        <v>12</v>
-      </c>
-      <c r="C397" t="s">
-        <v>4</v>
-      </c>
-      <c r="D397" s="1">
-        <v>387000000</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>33</v>
-      </c>
-      <c r="B398" t="s">
-        <v>13</v>
-      </c>
-      <c r="C398" t="s">
-        <v>3</v>
-      </c>
-      <c r="D398" s="1">
-        <v>511000000</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>33</v>
-      </c>
-      <c r="B399" t="s">
-        <v>13</v>
-      </c>
-      <c r="C399" t="s">
-        <v>4</v>
-      </c>
-      <c r="D399" s="1">
-        <v>1135000000</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>33</v>
-      </c>
-      <c r="B400" t="s">
-        <v>14</v>
-      </c>
-      <c r="C400" t="s">
-        <v>3</v>
-      </c>
-      <c r="D400" s="1">
-        <v>274000000</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>33</v>
-      </c>
-      <c r="B401" t="s">
-        <v>14</v>
-      </c>
-      <c r="C401" t="s">
-        <v>4</v>
-      </c>
-      <c r="D401" s="1">
-        <v>766000000</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>33</v>
-      </c>
-      <c r="B402" t="s">
-        <v>15</v>
-      </c>
-      <c r="C402" t="s">
-        <v>3</v>
-      </c>
-      <c r="D402" s="1">
-        <v>754000000</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>33</v>
-      </c>
-      <c r="B403" t="s">
-        <v>15</v>
-      </c>
-      <c r="C403" t="s">
-        <v>4</v>
-      </c>
-      <c r="D403" s="1">
-        <v>2135000000</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>33</v>
-      </c>
-      <c r="B404" t="s">
-        <v>16</v>
-      </c>
-      <c r="C404" t="s">
-        <v>3</v>
-      </c>
-      <c r="D404" s="1">
-        <v>535000000</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>33</v>
-      </c>
-      <c r="B405" t="s">
-        <v>16</v>
-      </c>
-      <c r="C405" t="s">
-        <v>4</v>
-      </c>
-      <c r="D405" s="1">
-        <v>553000000</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>33</v>
-      </c>
-      <c r="B406" t="s">
-        <v>17</v>
-      </c>
-      <c r="C406" t="s">
-        <v>3</v>
-      </c>
-      <c r="D406" s="1">
-        <v>1310000000</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>33</v>
-      </c>
-      <c r="B407" t="s">
-        <v>17</v>
-      </c>
-      <c r="C407" t="s">
-        <v>4</v>
-      </c>
-      <c r="D407" s="1">
-        <v>3129000000</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>33</v>
-      </c>
-      <c r="B408" t="s">
-        <v>18</v>
-      </c>
-      <c r="C408" t="s">
-        <v>3</v>
-      </c>
-      <c r="D408" s="1">
-        <v>1517000000</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>33</v>
-      </c>
-      <c r="B409" t="s">
-        <v>18</v>
-      </c>
-      <c r="C409" t="s">
-        <v>4</v>
-      </c>
-      <c r="D409" s="1">
-        <v>1729000000</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>33</v>
-      </c>
-      <c r="B410" t="s">
-        <v>19</v>
-      </c>
-      <c r="C410" t="s">
-        <v>3</v>
-      </c>
-      <c r="D410" s="1">
-        <v>1443000000</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
-        <v>33</v>
-      </c>
-      <c r="B411" t="s">
-        <v>19</v>
-      </c>
-      <c r="C411" t="s">
-        <v>4</v>
-      </c>
-      <c r="D411" s="1">
-        <v>1396000000</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
-        <v>33</v>
-      </c>
-      <c r="B412" t="s">
-        <v>20</v>
-      </c>
-      <c r="C412" t="s">
-        <v>3</v>
-      </c>
-      <c r="D412" s="1">
-        <v>51000000</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
-        <v>33</v>
-      </c>
-      <c r="B413" t="s">
-        <v>20</v>
-      </c>
-      <c r="C413" t="s">
-        <v>4</v>
-      </c>
-      <c r="D413" s="1">
-        <v>145000000</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>33</v>
-      </c>
-      <c r="B414" t="s">
-        <v>21</v>
-      </c>
-      <c r="C414" t="s">
-        <v>3</v>
-      </c>
-      <c r="D414" s="1">
-        <v>1695000000</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>33</v>
-      </c>
-      <c r="B415" t="s">
-        <v>21</v>
-      </c>
-      <c r="C415" t="s">
-        <v>4</v>
-      </c>
-      <c r="D415" s="1">
-        <v>3875000000</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>33</v>
-      </c>
-      <c r="B416" t="s">
-        <v>22</v>
-      </c>
-      <c r="C416" t="s">
-        <v>3</v>
-      </c>
-      <c r="D416" s="1">
-        <v>559000000</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>33</v>
-      </c>
-      <c r="B417" t="s">
-        <v>22</v>
-      </c>
-      <c r="C417" t="s">
-        <v>4</v>
-      </c>
-      <c r="D417" s="1">
         <v>103000000</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>33</v>
-      </c>
-      <c r="B418" t="s">
-        <v>23</v>
-      </c>
-      <c r="C418" t="s">
-        <v>3</v>
-      </c>
-      <c r="D418" s="1">
-        <v>1226000000</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>33</v>
-      </c>
-      <c r="B419" t="s">
-        <v>23</v>
-      </c>
-      <c r="C419" t="s">
-        <v>4</v>
-      </c>
-      <c r="D419" s="1">
-        <v>429000000</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>33</v>
-      </c>
-      <c r="B420" t="s">
-        <v>24</v>
-      </c>
-      <c r="C420" t="s">
-        <v>3</v>
-      </c>
-      <c r="D420" s="1">
-        <v>54493000000</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>33</v>
-      </c>
-      <c r="B421" t="s">
-        <v>24</v>
-      </c>
-      <c r="C421" t="s">
-        <v>4</v>
-      </c>
-      <c r="D421" s="1">
-        <v>53880000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:D421" numberStoredAsText="1"/>
+    <ignoredError sqref="A39 A77 A115 A153 A191 A229 A267 A305 A343 A381 A2 C2:D2 A3 C3:D3 A40 C40:D40 A41 C41:D41 A78 C78:D78 A79 C79:D79 A116 C116:D116 A117 C117:D117 A154 C154:D154 A155 C155:D155 A192 C192:D192 A193 C193:D193 A230 C230:D230 A231 C231:D231 A268 C268:D268 A269 C269:D269 A306 C306:D306 A307 C307:D307 A344 C344:D344 A345 C345:D345 A4 C4:D4 A5 C5:D5 A42 C42:D42 A43 C43:D43 A80 C80:D80 A81 C81:D81 A118 C118:D118 A119 C119:D119 A156 C156:D156 A157 C157:D157 A194 C194:D194 A195 C195:D195 A232 C232:D232 A233 C233:D233 A270 C270:D270 A271 C271:D271 A308 C308:D308 A309 C309:D309 A346 C346:D346 A347 C347:D347 A6 C6:D6 A7 C7:D7 A44 C44:D44 A45 C45:D45 A82 C82:D82 A83 C83:D83 A120 C120:D120 A121 C121:D121 A158 C158:D158 A159 C159:D159 A196 C196:D196 A197 C197:D197 A234 C234:D234 A235 C235:D235 A272 C272:D272 A273 C273:D273 A310 C310:D310 A311 C311:D311 A348 C348:D348 A349 C349:D349 A8 C8:D8 A9 C9:D9 A46 C46:D46 A47 C47:D47 A84 C84:D84 A85 C85:D85 A122 C122:D122 A123 C123:D123 A160 C160:D160 A161 C161:D161 A198 C198:D198 A199 C199:D199 A236 C236:D236 A237 C237:D237 A274 C274:D274 A275 C275:D275 A312 C312:D312 A313 C313:D313 A350 C350:D350 A351 C351:D351 A10 C10:D10 A11 C11:D11 A48 C48:D48 A49 C49:D49 A86 C86:D86 A87 C87:D87 A124 C124:D124 A125 C125:D125 A162 C162:D162 A163 C163:D163 A200 C200:D200 A201 C201:D201 A238 C238:D238 A239 C239:D239 A276 C276:D276 A277 C277:D277 A314 C314:D314 A315 C315:D315 A352 C352:D352 A353 C353:D353 A12 C12:D12 A13 C13:D13 A50 C50:D50 A51 C51:D51 A88 C88:D88 A89 C89:D89 A126 C126:D126 A127 C127:D127 A164 C164:D164 A165 C165:D165 A202 C202:D202 A203 C203:D203 A240 C240:D240 A241 C241:D241 A278 C278:D278 A279 C279:D279 A316 C316:D316 A317 C317:D317 A354 C354:D354 A355 C355:D355 A14 C14:D14 A15 C15:D15 A52 C52:D52 A53 C53:D53 A90 C90:D90 A91 C91:D91 A128 C128:D128 A129 C129:D129 A166 C166:D166 A167 C167:D167 A204 C204:D204 A205 C205:D205 A242 C242:D242 A243 C243:D243 A280 C280:D280 A281 C281:D281 A318 C318:D318 A319 C319:D319 A356 C356:D356 A357 C357:D357 A16 C16:D16 A17 C17:D17 A54 C54:D54 A55 C55:D55 A92 C92:D92 A93 C93:D93 A130 C130:D130 A131 C131:D131 A168 C168:D168 A169 C169:D169 A206 C206:D206 A207 C207:D207 A244 C244:D244 A245 C245:D245 A282 C282:D282 A283 C283:D283 A320 C320:D320 A321 C321:D321 A358 C358:D358 A359 C359:D359 A18 C18:D18 A19 C19:D19 A56 C56:D56 A57 C57:D57 A94 C94:D94 A95 C95:D95 A132 C132:D132 A133 C133:D133 A170 C170:D170 A171 C171:D171 A208 C208:D208 A209 C209:D209 A246 C246:D246 A247 C247:D247 A284 C284:D284 A285 C285:D285 A322 C322:D322 A323 C323:D323 A360 C360:D360 A361 C361:D361 A20 C20:D20 A21 C21:D21 A58 C58:D58 A59 C59:D59 A96 C96:D96 A97 C97:D97 A134 C134:D134 A135 C135:D135 A172 C172:D172 A173 C173:D173 A210 C210:D210 A211 C211:D211 A248 C248:D248 A249 C249:D249 A286 C286:D286 A287 C287:D287 A324 C324:D324 A325 C325:D325 A362 C362:D362 A363 C363:D363 A22 C22:D22 A23 C23:D23 A60 C60:D60 A61 C61:D61 A98 C98:D98 A99 C99:D99 A136 C136:D136 A137 C137:D137 A174 C174:D174 A175 C175:D175 A212 C212:D212 A213 C213:D213 A250 C250:D250 A251 C251:D251 A288 C288:D288 A289 C289:D289 A326 C326:D326 A327 C327:D327 A364 C364:D364 A365 C365:D365 A24 C24:D24 A25 C25:D25 A62 C62:D62 A63 C63:D63 A100 C100:D100 A101 C101:D101 A138 C138:D138 A139 C139:D139 A176 C176:D176 A177 C177:D177 A214 C214:D214 A215 C215:D215 A252 C252:D252 A253 C253:D253 A290 C290:D290 A291 C291:D291 A328 C328:D328 A329 C329:D329 A366 C366:D366 A367 C367:D367 A26 C26:D26 A27 C27:D27 A64 C64:D64 A65 C65:D65 A102 C102:D102 A103 C103:D103 A140 C140:D140 A141 C141:D141 A178 C178:D178 A179 C179:D179 A216 C216:D216 A217 C217:D217 A254 C254:D254 A255 C255:D255 A292 C292:D292 A293 C293:D293 A330 C330:D330 A331 C331:D331 A368 C368:D368 A369 C369:D369 A28 C28:D28 A29 C29:D29 A66 C66:D66 A67 C67:D67 A104 C104:D104 A105 C105:D105 A142 C142:D142 A143 C143:D143 A180 C180:D180 A181 C181:D181 A218 C218:D218 A219 C219:D219 A256 C256:D256 A257 C257:D257 A294 C294:D294 A295 C295:D295 A332 C332:D332 A333 C333:D333 A370 C370:D370 A371 C371:D371 A30 C30:D30 A31 C31:D31 A68 C68:D68 A69 C69:D69 A106 C106:D106 A107 C107:D107 A144 C144:D144 A145 C145:D145 A182 C182:D182 A183 C183:D183 A220 C220:D220 A221 C221:D221 A258 C258:D258 A259 C259:D259 A296 C296:D296 A297 C297:D297 A334 C334:D334 A335 C335:D335 A372 C372:D372 A373 C373:D373 A32 C32:D32 A33 C33:D33 A70 C70:D70 A71 C71:D71 A108 C108:D108 A109 C109:D109 A146 C146:D146 A147 C147:D147 A184 C184:D184 A185 C185:D185 A222 C222:D222 A223 C223:D223 A260 C260:D260 A261 C261:D261 A298 C298:D298 A299 C299:D299 A336 C336:D336 A337 C337:D337 A374 C374:D374 A375 C375:D375 A34 C34:D34 A35 C35:D35 A72 C72:D72 A73 C73:D73 A110 C110:D110 A111 C111:D111 A148 C148:D148 A149 C149:D149 A186 C186:D186 A187 C187:D187 A224 C224:D224 A225 C225:D225 A262 C262:D262 A263 C263:D263 A300 C300:D300 A301 C301:D301 A338 C338:D338 A339 C339:D339 A376 C376:D376 A377 C377:D377 A36 C36:D36 A37 C37:D37 A74 C74:D74 A75 C75:D75 A112 C112:D112 A113 C113:D113 A150 C150:D150 A151 C151:D151 A188 C188:D188 A189 C189:D189 A226 C226:D226 A227 C227:D227 A264 C264:D264 A265 C265:D265 A302 C302:D302 A303 C303:D303 A340 C340:D340 A341 C341:D341 A378 C378:D378 A379 C379:D379 A38 C38:D38 C39:D39 A76 C76:D76 C77:D77 A114 C114:D114 C115:D115 A152 C152:D152 C153:D153 A190 C190:D190 C191:D191 A228 C228:D228 C229:D229 A266 C266:D266 C267:D267 A304 C304:D304 C305:D305 A342 C342:D342 C343:D343 A380 C380:D380 C381:D381" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>